--- a/LucerneAndPasture/RawDataFiles/Irrigation.xlsx
+++ b/LucerneAndPasture/RawDataFiles/Irrigation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="104">
   <si>
     <t>Dry</t>
   </si>
@@ -50,9 +50,6 @@
     <t>2011-11-28 </t>
   </si>
   <si>
-    <t>2011-11-29 </t>
-  </si>
-  <si>
     <t>2011-12-05 </t>
   </si>
   <si>
@@ -336,6 +333,9 @@
   </si>
   <si>
     <t>Amount</t>
+  </si>
+  <si>
+    <t>2011-12-01 </t>
   </si>
 </sst>
 </file>
@@ -376,9 +376,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -659,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C157"/>
+  <dimension ref="A1:C161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="C136" sqref="C136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -672,13 +673,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" t="s">
         <v>101</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>102</v>
-      </c>
-      <c r="C1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -707,22 +708,22 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
+      <c r="B4" s="2">
+        <v>40864</v>
       </c>
       <c r="C4">
-        <v>13.6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
+      <c r="B5" s="2">
+        <v>40867</v>
       </c>
       <c r="C5">
-        <v>20.100000000000001</v>
+        <v>19.600000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -730,10 +731,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>16.399999999999999</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -741,10 +742,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>20.100000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -752,10 +753,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>16.399999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -763,10 +764,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>22.5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -774,10 +775,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>16.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -785,10 +786,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>22.8</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -796,10 +797,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C12">
-        <v>17.8</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -807,10 +808,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C13">
-        <v>9.1</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -818,10 +819,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C14">
-        <v>18.3</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -829,10 +830,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C15">
-        <v>18.600000000000001</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -840,10 +841,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C16">
-        <v>22.5</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -851,10 +852,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>18.600000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -862,10 +863,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C18">
-        <v>12</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -873,10 +874,10 @@
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C19">
-        <v>16.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -884,10 +885,10 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C20">
-        <v>13.3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -895,10 +896,10 @@
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C21">
-        <v>12.2</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -906,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C22">
         <v>13.3</v>
@@ -917,10 +918,10 @@
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C23">
-        <v>8.8000000000000007</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -928,10 +929,10 @@
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C24">
-        <v>10</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -939,10 +940,10 @@
         <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C25">
-        <v>6.5</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -950,10 +951,10 @@
         <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -961,10 +962,10 @@
         <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C27">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -972,10 +973,10 @@
         <v>1</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C28">
-        <v>4.5999999999999996</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -983,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C29">
         <v>6.9</v>
@@ -994,10 +995,10 @@
         <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C30">
-        <v>3.2</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1005,10 +1006,10 @@
         <v>1</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C31">
-        <v>18</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1016,10 +1017,10 @@
         <v>1</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C32">
-        <v>12</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1027,10 +1028,10 @@
         <v>1</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C33">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1038,7 +1039,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C34">
         <v>12</v>
@@ -1049,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C35">
         <v>12</v>
@@ -1060,10 +1061,10 @@
         <v>1</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C36">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1071,7 +1072,7 @@
         <v>1</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C37">
         <v>12</v>
@@ -1082,10 +1083,10 @@
         <v>1</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C38">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1093,10 +1094,10 @@
         <v>1</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C39">
-        <v>20.8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1104,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C40">
         <v>12</v>
@@ -1115,10 +1116,10 @@
         <v>1</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C41">
-        <v>12</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1126,10 +1127,10 @@
         <v>1</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C42">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1137,7 +1138,7 @@
         <v>1</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C43">
         <v>12</v>
@@ -1148,10 +1149,10 @@
         <v>1</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C44">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1159,10 +1160,10 @@
         <v>1</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C45">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1170,10 +1171,10 @@
         <v>1</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C46">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1181,10 +1182,10 @@
         <v>1</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C47">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1192,10 +1193,10 @@
         <v>1</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C48">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1203,10 +1204,10 @@
         <v>1</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C49">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1214,7 +1215,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C50">
         <v>15</v>
@@ -1225,7 +1226,7 @@
         <v>1</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C51">
         <v>15</v>
@@ -1236,10 +1237,10 @@
         <v>1</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C52">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1247,10 +1248,10 @@
         <v>1</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C53">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1258,10 +1259,10 @@
         <v>1</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C54">
-        <v>18.7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1269,10 +1270,10 @@
         <v>1</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C55">
-        <v>13.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1280,10 +1281,10 @@
         <v>1</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C56">
-        <v>15</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1291,10 +1292,10 @@
         <v>1</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C57">
-        <v>15</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1302,7 +1303,7 @@
         <v>1</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C58">
         <v>15</v>
@@ -1313,10 +1314,10 @@
         <v>1</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C59">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1324,10 +1325,10 @@
         <v>1</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C60">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1335,10 +1336,10 @@
         <v>1</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="C61">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1346,10 +1347,10 @@
         <v>1</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C62">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1357,10 +1358,10 @@
         <v>1</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C63">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1368,7 +1369,7 @@
         <v>1</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C64">
         <v>9</v>
@@ -1379,10 +1380,10 @@
         <v>1</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C65">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1390,7 +1391,7 @@
         <v>1</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C66">
         <v>9</v>
@@ -1401,10 +1402,10 @@
         <v>1</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C67">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1412,10 +1413,10 @@
         <v>1</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C68">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1423,10 +1424,10 @@
         <v>1</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C69">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1434,10 +1435,10 @@
         <v>1</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C70">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1445,7 +1446,7 @@
         <v>1</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C71">
         <v>9</v>
@@ -1456,10 +1457,10 @@
         <v>1</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C72">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1467,10 +1468,10 @@
         <v>1</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C73">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1478,10 +1479,10 @@
         <v>1</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C74">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1489,10 +1490,10 @@
         <v>1</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C75">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1500,10 +1501,10 @@
         <v>1</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C76">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1511,10 +1512,10 @@
         <v>1</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C77">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1522,10 +1523,10 @@
         <v>1</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C78">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1533,10 +1534,10 @@
         <v>1</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C79">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1544,10 +1545,10 @@
         <v>1</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C80">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1555,10 +1556,10 @@
         <v>1</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C81">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1566,10 +1567,10 @@
         <v>1</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C82">
-        <v>12.6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1577,10 +1578,10 @@
         <v>1</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C83">
-        <v>15.7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1588,10 +1589,10 @@
         <v>1</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C84">
-        <v>14.7</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1599,10 +1600,10 @@
         <v>1</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C85">
-        <v>17.5</v>
+        <v>15.7</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1610,10 +1611,10 @@
         <v>1</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C86">
-        <v>7.5</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1621,10 +1622,10 @@
         <v>1</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C87">
-        <v>10</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1632,10 +1633,10 @@
         <v>1</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C88">
-        <v>12</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1643,7 +1644,7 @@
         <v>1</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C89">
         <v>10</v>
@@ -1654,10 +1655,10 @@
         <v>1</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C90">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1665,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C91">
         <v>10</v>
@@ -1676,32 +1677,32 @@
         <v>1</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C92">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="C93">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="C94">
-        <v>13.6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1709,21 +1710,18 @@
         <v>2</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C95">
-        <v>36.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>2</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C96">
-        <v>34.9</v>
+      <c r="B96" s="2">
+        <v>40867</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1731,10 +1729,10 @@
         <v>2</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C97">
-        <v>41.8</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1742,10 +1740,10 @@
         <v>2</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="C98">
-        <v>22.8</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1753,10 +1751,10 @@
         <v>2</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C99">
-        <v>26.9</v>
+        <v>34.9</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1764,10 +1762,10 @@
         <v>2</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C100">
-        <v>36.799999999999997</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1775,10 +1773,10 @@
         <v>2</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C101">
-        <v>19.8</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1786,10 +1784,10 @@
         <v>2</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C102">
-        <v>30</v>
+        <v>26.9</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1797,10 +1795,10 @@
         <v>2</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="C103">
-        <v>13</v>
+        <v>36.799999999999997</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1808,10 +1806,10 @@
         <v>2</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C104">
-        <v>14.3</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1819,10 +1817,10 @@
         <v>2</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C105">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1830,10 +1828,10 @@
         <v>2</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="C106">
-        <v>11.4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1841,10 +1839,10 @@
         <v>2</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C107">
-        <v>11.5</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1852,10 +1850,10 @@
         <v>2</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C108">
-        <v>10.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1863,10 +1861,10 @@
         <v>2</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C109">
-        <v>18</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1874,10 +1872,10 @@
         <v>2</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C110">
-        <v>12</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1885,10 +1883,10 @@
         <v>2</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C111">
-        <v>24</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1896,10 +1894,10 @@
         <v>2</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C112">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1907,10 +1905,10 @@
         <v>2</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C113">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1918,10 +1916,10 @@
         <v>2</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C114">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1929,10 +1927,10 @@
         <v>2</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C115">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1940,10 +1938,10 @@
         <v>2</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C116">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1951,7 +1949,7 @@
         <v>2</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C117">
         <v>42</v>
@@ -1962,10 +1960,10 @@
         <v>2</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="C118">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1973,7 +1971,7 @@
         <v>2</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C119">
         <v>30</v>
@@ -1984,10 +1982,10 @@
         <v>2</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C120">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1995,10 +1993,10 @@
         <v>2</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="C121">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2006,10 +2004,10 @@
         <v>2</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C122">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2017,10 +2015,10 @@
         <v>2</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C123">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2028,10 +2026,10 @@
         <v>2</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="C124">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2039,10 +2037,10 @@
         <v>2</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C125">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2050,10 +2048,10 @@
         <v>2</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="C126">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2061,10 +2059,10 @@
         <v>2</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="C127">
-        <v>12.7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2072,10 +2070,10 @@
         <v>2</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C128">
-        <v>40.9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2083,10 +2081,10 @@
         <v>2</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C129">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2094,10 +2092,10 @@
         <v>2</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C130">
-        <v>25</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2105,43 +2103,43 @@
         <v>2</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C131">
-        <v>32</v>
+        <v>40.9</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="C132">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="C133">
-        <v>47.6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="C134">
-        <v>34.9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2149,21 +2147,18 @@
         <v>3</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C135">
-        <v>41.8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
         <v>3</v>
       </c>
-      <c r="B136" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C136">
-        <v>49.8</v>
+      <c r="B136" s="2">
+        <v>40867</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2171,10 +2166,10 @@
         <v>3</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C137">
-        <v>36.799999999999997</v>
+        <v>47.6</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2182,10 +2177,10 @@
         <v>3</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C138">
-        <v>49.6</v>
+        <v>34.9</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2193,10 +2188,10 @@
         <v>3</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C139">
-        <v>34.299999999999997</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2204,10 +2199,10 @@
         <v>3</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C140">
-        <v>21.4</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2215,10 +2210,10 @@
         <v>3</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="C141">
-        <v>23.7</v>
+        <v>36.799999999999997</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2226,10 +2221,10 @@
         <v>3</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C142">
-        <v>18</v>
+        <v>49.6</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2237,10 +2232,10 @@
         <v>3</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C143">
-        <v>12</v>
+        <v>34.299999999999997</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2248,10 +2243,10 @@
         <v>3</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C144">
-        <v>27</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2259,10 +2254,10 @@
         <v>3</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C145">
-        <v>42</v>
+        <v>23.7</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2270,10 +2265,10 @@
         <v>3</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C146">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2281,10 +2276,10 @@
         <v>3</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="C147">
-        <v>90.6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2292,10 +2287,10 @@
         <v>3</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="C148">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2303,10 +2298,10 @@
         <v>3</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C149">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2314,10 +2309,10 @@
         <v>3</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C150">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2325,10 +2320,10 @@
         <v>3</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="C151">
-        <v>15</v>
+        <v>90.6</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2336,10 +2331,10 @@
         <v>3</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="C152">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2347,10 +2342,10 @@
         <v>3</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C153">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2358,10 +2353,10 @@
         <v>3</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C154">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2369,10 +2364,10 @@
         <v>3</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C155">
-        <v>44.7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2380,10 +2375,10 @@
         <v>3</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="C156">
-        <v>33.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2391,9 +2386,53 @@
         <v>3</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="C157">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
+        <v>3</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C158">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" t="s">
+        <v>3</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C159">
+        <v>44.7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" t="s">
+        <v>3</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C160">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
+        <v>3</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C161">
         <v>32</v>
       </c>
     </row>
